--- a/artfynd/A 66612-2020.xlsx
+++ b/artfynd/A 66612-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84051094</v>
+        <v>99173060</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,46 +692,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>539415.2116044338</v>
+        <v>539256.3188231563</v>
       </c>
       <c r="R2" t="n">
-        <v>6350031.070721704</v>
+        <v>6350226.250211943</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -758,7 +752,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -768,7 +762,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -782,7 +776,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -801,10 +794,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84050355</v>
+        <v>99172927</v>
       </c>
       <c r="B3" t="n">
-        <v>101680</v>
+        <v>94121</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,42 +806,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222412</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>539505.7957487928</v>
+        <v>539254.0860618007</v>
       </c>
       <c r="R3" t="n">
-        <v>6350127.051859574</v>
+        <v>6350233.253767982</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -875,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -899,7 +890,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -918,7 +908,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84050708</v>
+        <v>99174072</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -952,20 +942,18 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>539402.8127194074</v>
+        <v>539208.2625974098</v>
       </c>
       <c r="R4" t="n">
-        <v>6350081.749373543</v>
+        <v>6350325.759571272</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -992,7 +980,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1002,7 +990,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1016,7 +1004,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1035,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84051139</v>
+        <v>99174318</v>
       </c>
       <c r="B5" t="n">
-        <v>92939</v>
+        <v>98520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1051,38 +1038,36 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2779</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>539410.7920437208</v>
+        <v>539216.6096727781</v>
       </c>
       <c r="R5" t="n">
-        <v>6350040.215144792</v>
+        <v>6350358.80148828</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1109,7 +1094,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1119,7 +1104,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1127,18 +1112,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Liten förekomst på en lodyta</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1157,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84051098</v>
+        <v>99173825</v>
       </c>
       <c r="B6" t="n">
-        <v>89412</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,41 +1148,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>539415.2116044338</v>
+        <v>539271.5900078313</v>
       </c>
       <c r="R6" t="n">
-        <v>6350031.070721704</v>
+        <v>6350271.247502877</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1230,7 +1208,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1240,7 +1218,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1254,7 +1232,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1273,7 +1250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84050375</v>
+        <v>99173789</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1307,20 +1284,18 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>539493.1042191584</v>
+        <v>539245.6396358059</v>
       </c>
       <c r="R7" t="n">
-        <v>6350151.787670188</v>
+        <v>6350267.216626702</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1347,7 +1322,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1357,7 +1332,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1371,7 +1346,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1390,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84051103</v>
+        <v>99173497</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,42 +1376,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>539415.2116044338</v>
+        <v>539248.1410926961</v>
       </c>
       <c r="R8" t="n">
-        <v>6350031.070721704</v>
+        <v>6350232.116149018</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1464,7 +1440,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1474,7 +1450,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1488,7 +1464,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1507,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84050667</v>
+        <v>99173832</v>
       </c>
       <c r="B9" t="n">
-        <v>93375</v>
+        <v>98520</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1523,38 +1498,36 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2180</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>539316.1972421961</v>
+        <v>539275.9107554829</v>
       </c>
       <c r="R9" t="n">
-        <v>6350079.837855902</v>
+        <v>6350272.369600421</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1581,7 +1554,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1591,7 +1564,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1605,7 +1578,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1624,10 +1596,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84050320</v>
+        <v>99173328</v>
       </c>
       <c r="B10" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1640,38 +1612,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>539506.1758989005</v>
+        <v>539258.9327375042</v>
       </c>
       <c r="R10" t="n">
-        <v>6350143.807645764</v>
+        <v>6350236.002019925</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1698,7 +1667,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1708,7 +1677,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1722,7 +1691,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1741,10 +1709,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99172159</v>
+        <v>99173520</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1757,21 +1725,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1783,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>539516.5868594679</v>
+        <v>539242.1392826911</v>
       </c>
       <c r="R11" t="n">
-        <v>6350018.535473609</v>
+        <v>6350236.922146896</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1855,10 +1823,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99173060</v>
+        <v>99173205</v>
       </c>
       <c r="B12" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,21 +1839,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1897,10 +1865,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>539256.3188231563</v>
+        <v>539259.0464616225</v>
       </c>
       <c r="R12" t="n">
-        <v>6350226.250211943</v>
+        <v>6350224.114791503</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1969,10 +1937,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99172927</v>
+        <v>99173739</v>
       </c>
       <c r="B13" t="n">
-        <v>94121</v>
+        <v>56540</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,36 +1953,41 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>539254.0860618007</v>
+        <v>539217.3739143952</v>
       </c>
       <c r="R13" t="n">
-        <v>6350233.253767982</v>
+        <v>6350278.834586831</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2057,6 +2030,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Sångläte</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2083,10 +2061,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99164222</v>
+        <v>99173575</v>
       </c>
       <c r="B14" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2095,25 +2073,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2125,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>539585.1582267071</v>
+        <v>539233.8634402123</v>
       </c>
       <c r="R14" t="n">
-        <v>6350151.053435681</v>
+        <v>6350253.054294443</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2171,6 +2149,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>10-tal plantor</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2197,7 +2180,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99174072</v>
+        <v>99173993</v>
       </c>
       <c r="B15" t="n">
         <v>98520</v>
@@ -2239,10 +2222,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>539208.2625974098</v>
+        <v>539223.855044062</v>
       </c>
       <c r="R15" t="n">
-        <v>6350325.759571272</v>
+        <v>6350280.517645895</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2311,10 +2294,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99166957</v>
+        <v>99173306</v>
       </c>
       <c r="B16" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2323,39 +2306,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>539621.0901715197</v>
+        <v>539256.3653434922</v>
       </c>
       <c r="R16" t="n">
-        <v>6350074.664182871</v>
+        <v>6350221.387247508</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2424,10 +2412,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99167041</v>
+        <v>99173768</v>
       </c>
       <c r="B17" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2436,32 +2424,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2470,10 +2454,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>539637.9157102385</v>
+        <v>539270.4865518878</v>
       </c>
       <c r="R17" t="n">
-        <v>6350070.50346332</v>
+        <v>6350273.398432867</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2542,7 +2526,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99167059</v>
+        <v>99173843</v>
       </c>
       <c r="B18" t="n">
         <v>98520</v>
@@ -2584,10 +2568,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>539649.649294429</v>
+        <v>539290.9125231432</v>
       </c>
       <c r="R18" t="n">
-        <v>6350088.990374581</v>
+        <v>6350345.462860767</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2656,7 +2640,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99174318</v>
+        <v>99173956</v>
       </c>
       <c r="B19" t="n">
         <v>98520</v>
@@ -2698,10 +2682,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>539216.6096727781</v>
+        <v>539278.2608273412</v>
       </c>
       <c r="R19" t="n">
-        <v>6350358.80148828</v>
+        <v>6350309.677629653</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2770,10 +2754,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99171501</v>
+        <v>84051094</v>
       </c>
       <c r="B20" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2782,40 +2766,46 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>539743.5934798156</v>
+        <v>539415.2116044338</v>
       </c>
       <c r="R20" t="n">
-        <v>6350005.055765028</v>
+        <v>6350031.070721704</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2842,7 +2832,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2852,7 +2842,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2866,6 +2856,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2884,10 +2875,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99173825</v>
+        <v>84050355</v>
       </c>
       <c r="B21" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2900,36 +2891,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>539271.5900078313</v>
+        <v>539505.7957487928</v>
       </c>
       <c r="R21" t="n">
-        <v>6350271.247502877</v>
+        <v>6350127.051859574</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2956,7 +2949,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2966,7 +2959,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2980,6 +2973,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2998,7 +2992,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99173789</v>
+        <v>84050708</v>
       </c>
       <c r="B22" t="n">
         <v>98520</v>
@@ -3032,18 +3026,20 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>539245.6396358059</v>
+        <v>539402.8127194074</v>
       </c>
       <c r="R22" t="n">
-        <v>6350267.216626702</v>
+        <v>6350081.749373543</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3070,7 +3066,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3080,7 +3076,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3094,6 +3090,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3112,10 +3109,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99170875</v>
+        <v>84051139</v>
       </c>
       <c r="B23" t="n">
-        <v>56411</v>
+        <v>92939</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3124,45 +3121,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>2779</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>539714.4616858282</v>
+        <v>539410.7920437208</v>
       </c>
       <c r="R23" t="n">
-        <v>6350105.828983504</v>
+        <v>6350040.215144792</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3189,7 +3183,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3199,7 +3193,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3207,12 +3201,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Liten förekomst på en lodyta</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99164309</v>
+        <v>84051098</v>
       </c>
       <c r="B24" t="n">
-        <v>98520</v>
+        <v>89412</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3243,40 +3243,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>5442</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>539524.1721307951</v>
+        <v>539415.2116044338</v>
       </c>
       <c r="R24" t="n">
-        <v>6350074.270018245</v>
+        <v>6350031.070721704</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3303,7 +3304,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3313,7 +3314,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3327,6 +3328,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3345,7 +3347,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99174613</v>
+        <v>84050375</v>
       </c>
       <c r="B25" t="n">
         <v>98520</v>
@@ -3379,18 +3381,20 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>539512.787834876</v>
+        <v>539493.1042191584</v>
       </c>
       <c r="R25" t="n">
-        <v>6350244.382634892</v>
+        <v>6350151.787670188</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3417,7 +3421,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3427,7 +3431,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3441,6 +3445,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3459,10 +3464,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>99170547</v>
+        <v>84051103</v>
       </c>
       <c r="B26" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3471,44 +3476,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>539712.4895218221</v>
+        <v>539415.2116044338</v>
       </c>
       <c r="R26" t="n">
-        <v>6350085.815209128</v>
+        <v>6350031.070721704</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3535,7 +3538,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3545,7 +3548,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3559,6 +3562,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3577,10 +3581,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>99169270</v>
+        <v>84050667</v>
       </c>
       <c r="B27" t="n">
-        <v>98520</v>
+        <v>93375</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3593,36 +3597,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>2180</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>539788.1699979876</v>
+        <v>539316.1972421961</v>
       </c>
       <c r="R27" t="n">
-        <v>6350042.775755577</v>
+        <v>6350079.837855902</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3649,7 +3655,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3659,7 +3665,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3673,6 +3679,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3691,7 +3698,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>99170381</v>
+        <v>84050320</v>
       </c>
       <c r="B28" t="n">
         <v>98520</v>
@@ -3725,18 +3732,20 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>539756.9240943585</v>
+        <v>539506.1758989005</v>
       </c>
       <c r="R28" t="n">
-        <v>6350138.123360272</v>
+        <v>6350143.807645764</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3763,7 +3772,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3773,7 +3782,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3787,6 +3796,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3805,7 +3815,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>99170649</v>
+        <v>99172159</v>
       </c>
       <c r="B29" t="n">
         <v>98520</v>
@@ -3847,10 +3857,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>539743.640175284</v>
+        <v>539516.5868594679</v>
       </c>
       <c r="R29" t="n">
-        <v>6350112.055810832</v>
+        <v>6350018.535473609</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3919,10 +3929,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99173497</v>
+        <v>99164222</v>
       </c>
       <c r="B30" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3931,32 +3941,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -3965,10 +3971,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>539248.1410926961</v>
+        <v>539585.1582267071</v>
       </c>
       <c r="R30" t="n">
-        <v>6350232.116149018</v>
+        <v>6350151.053435681</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4037,10 +4043,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>99173832</v>
+        <v>99166957</v>
       </c>
       <c r="B31" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4053,36 +4059,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>539275.9107554829</v>
+        <v>539621.0901715197</v>
       </c>
       <c r="R31" t="n">
-        <v>6350272.369600421</v>
+        <v>6350074.664182871</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4151,10 +4156,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>99169015</v>
+        <v>99167041</v>
       </c>
       <c r="B32" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4163,28 +4168,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4193,10 +4202,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>539780.1954048455</v>
+        <v>539637.9157102385</v>
       </c>
       <c r="R32" t="n">
-        <v>6350027.567102903</v>
+        <v>6350070.50346332</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4265,10 +4274,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>99172254</v>
+        <v>99167059</v>
       </c>
       <c r="B33" t="n">
-        <v>56540</v>
+        <v>98520</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4277,45 +4286,40 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>539475.9500358979</v>
+        <v>539649.649294429</v>
       </c>
       <c r="R33" t="n">
-        <v>6350077.5886661</v>
+        <v>6350088.990374581</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4358,11 +4362,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Sångläte</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4389,7 +4388,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>99164523</v>
+        <v>99171501</v>
       </c>
       <c r="B34" t="n">
         <v>98520</v>
@@ -4431,10 +4430,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539540.424873985</v>
+        <v>539743.5934798156</v>
       </c>
       <c r="R34" t="n">
-        <v>6350129.546939268</v>
+        <v>6350005.055765028</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4503,10 +4502,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>99166821</v>
+        <v>99170875</v>
       </c>
       <c r="B35" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4515,44 +4514,45 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539629.559704522</v>
+        <v>539714.4616858282</v>
       </c>
       <c r="R35" t="n">
-        <v>6350094.740695421</v>
+        <v>6350105.828983504</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>99174643</v>
+        <v>99164309</v>
       </c>
       <c r="B36" t="n">
         <v>98520</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539544.7402586313</v>
+        <v>539524.1721307951</v>
       </c>
       <c r="R36" t="n">
-        <v>6350243.609669021</v>
+        <v>6350074.270018245</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>99173328</v>
+        <v>99174613</v>
       </c>
       <c r="B37" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4751,35 +4751,36 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539258.9327375042</v>
+        <v>539512.787834876</v>
       </c>
       <c r="R37" t="n">
-        <v>6350236.002019925</v>
+        <v>6350244.382634892</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4848,10 +4849,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>99173520</v>
+        <v>99170547</v>
       </c>
       <c r="B38" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4860,28 +4861,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
@@ -4890,10 +4895,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539242.1392826911</v>
+        <v>539712.4895218221</v>
       </c>
       <c r="R38" t="n">
-        <v>6350236.922146896</v>
+        <v>6350085.815209128</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4962,7 +4967,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>99170698</v>
+        <v>99169270</v>
       </c>
       <c r="B39" t="n">
         <v>98520</v>
@@ -5004,10 +5009,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539752.4701903656</v>
+        <v>539788.1699979876</v>
       </c>
       <c r="R39" t="n">
-        <v>6350094.848659789</v>
+        <v>6350042.775755577</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5076,7 +5081,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>99167171</v>
+        <v>99170381</v>
       </c>
       <c r="B40" t="n">
         <v>98520</v>
@@ -5118,10 +5123,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539658.8062776213</v>
+        <v>539756.9240943585</v>
       </c>
       <c r="R40" t="n">
-        <v>6350093.942432959</v>
+        <v>6350138.123360272</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5190,7 +5195,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>99168366</v>
+        <v>99170649</v>
       </c>
       <c r="B41" t="n">
         <v>98520</v>
@@ -5232,10 +5237,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539754.1601947012</v>
+        <v>539743.640175284</v>
       </c>
       <c r="R41" t="n">
-        <v>6350032.178471924</v>
+        <v>6350112.055810832</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5304,10 +5309,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>99173205</v>
+        <v>99169015</v>
       </c>
       <c r="B42" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5320,21 +5325,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5346,10 +5351,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539259.0464616225</v>
+        <v>539780.1954048455</v>
       </c>
       <c r="R42" t="n">
-        <v>6350224.114791503</v>
+        <v>6350027.567102903</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5418,7 +5423,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>99173739</v>
+        <v>99172254</v>
       </c>
       <c r="B43" t="n">
         <v>56540</v>
@@ -5465,10 +5470,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539217.3739143952</v>
+        <v>539475.9500358979</v>
       </c>
       <c r="R43" t="n">
-        <v>6350278.834586831</v>
+        <v>6350077.5886661</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5542,7 +5547,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>99164510</v>
+        <v>99164523</v>
       </c>
       <c r="B44" t="n">
         <v>98520</v>
@@ -5584,10 +5589,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539527.3530811256</v>
+        <v>539540.424873985</v>
       </c>
       <c r="R44" t="n">
-        <v>6350137.52688375</v>
+        <v>6350129.546939268</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5656,7 +5661,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>99170936</v>
+        <v>99166821</v>
       </c>
       <c r="B45" t="n">
         <v>96334</v>
@@ -5691,7 +5696,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -5702,10 +5707,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539726.3935934707</v>
+        <v>539629.559704522</v>
       </c>
       <c r="R45" t="n">
-        <v>6350103.782888344</v>
+        <v>6350094.740695421</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5774,7 +5779,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>99167899</v>
+        <v>99174643</v>
       </c>
       <c r="B46" t="n">
         <v>98520</v>
@@ -5816,10 +5821,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539725.0988923627</v>
+        <v>539544.7402586313</v>
       </c>
       <c r="R46" t="n">
-        <v>6350069.725266583</v>
+        <v>6350243.609669021</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5888,10 +5893,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>99170979</v>
+        <v>99170698</v>
       </c>
       <c r="B47" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5904,21 +5909,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5930,10 +5935,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539703.9367285477</v>
+        <v>539752.4701903656</v>
       </c>
       <c r="R47" t="n">
-        <v>6350074.384073156</v>
+        <v>6350094.848659789</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6002,10 +6007,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>99172394</v>
+        <v>99167171</v>
       </c>
       <c r="B48" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6018,21 +6023,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6044,10 +6049,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539465.3514239549</v>
+        <v>539658.8062776213</v>
       </c>
       <c r="R48" t="n">
-        <v>6350109.91052043</v>
+        <v>6350093.942432959</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6116,10 +6121,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>99173575</v>
+        <v>99168366</v>
       </c>
       <c r="B49" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6128,25 +6133,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6158,10 +6163,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539233.8634402123</v>
+        <v>539754.1601947012</v>
       </c>
       <c r="R49" t="n">
-        <v>6350253.054294443</v>
+        <v>6350032.178471924</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6204,11 +6209,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>10-tal plantor</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6235,7 +6235,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>99173993</v>
+        <v>99164510</v>
       </c>
       <c r="B50" t="n">
         <v>98520</v>
@@ -6277,10 +6277,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539223.855044062</v>
+        <v>539527.3530811256</v>
       </c>
       <c r="R50" t="n">
-        <v>6350280.517645895</v>
+        <v>6350137.52688375</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>99173306</v>
+        <v>99170936</v>
       </c>
       <c r="B51" t="n">
         <v>96334</v>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>539256.3653434922</v>
+        <v>539726.3935934707</v>
       </c>
       <c r="R51" t="n">
-        <v>6350221.387247508</v>
+        <v>6350103.782888344</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>99167046</v>
+        <v>99167899</v>
       </c>
       <c r="B52" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6483,35 +6483,36 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>539637.9157102385</v>
+        <v>539725.0988923627</v>
       </c>
       <c r="R52" t="n">
-        <v>6350070.50346332</v>
+        <v>6350069.725266583</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6580,10 +6581,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>99164191</v>
+        <v>99170979</v>
       </c>
       <c r="B53" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6596,21 +6597,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6622,10 +6623,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>539581.8733302461</v>
+        <v>539703.9367285477</v>
       </c>
       <c r="R53" t="n">
-        <v>6350154.804474275</v>
+        <v>6350074.384073156</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6694,10 +6695,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>99168206</v>
+        <v>99172394</v>
       </c>
       <c r="B54" t="n">
-        <v>56540</v>
+        <v>103265</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6706,45 +6707,40 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>539725.119814633</v>
+        <v>539465.3514239549</v>
       </c>
       <c r="R54" t="n">
-        <v>6350067.563866677</v>
+        <v>6350109.91052043</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6787,11 +6783,6 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Sångläte</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6818,10 +6809,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>99165688</v>
+        <v>99167046</v>
       </c>
       <c r="B55" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6834,36 +6825,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>539600.5573453812</v>
+        <v>539637.9157102385</v>
       </c>
       <c r="R55" t="n">
-        <v>6350126.344019163</v>
+        <v>6350070.50346332</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6932,10 +6922,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>99170645</v>
+        <v>99164191</v>
       </c>
       <c r="B56" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6944,32 +6934,28 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
@@ -6978,10 +6964,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>539743.640175284</v>
+        <v>539581.8733302461</v>
       </c>
       <c r="R56" t="n">
-        <v>6350112.055810832</v>
+        <v>6350154.804474275</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7050,10 +7036,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>99171633</v>
+        <v>99168206</v>
       </c>
       <c r="B57" t="n">
-        <v>98520</v>
+        <v>56540</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7062,40 +7048,45 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>539634.6737731346</v>
+        <v>539725.119814633</v>
       </c>
       <c r="R57" t="n">
-        <v>6350013.729751441</v>
+        <v>6350067.563866677</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7138,6 +7129,11 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Sångläte</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7164,7 +7160,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>99172460</v>
+        <v>99165688</v>
       </c>
       <c r="B58" t="n">
         <v>98520</v>
@@ -7206,10 +7202,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>539466.4186498214</v>
+        <v>539600.5573453812</v>
       </c>
       <c r="R58" t="n">
-        <v>6350111.541966762</v>
+        <v>6350126.344019163</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7278,10 +7274,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>99173768</v>
+        <v>99170645</v>
       </c>
       <c r="B59" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7290,28 +7286,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>539270.4865518878</v>
+        <v>539743.640175284</v>
       </c>
       <c r="R59" t="n">
-        <v>6350273.398432867</v>
+        <v>6350112.055810832</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>99170736</v>
+        <v>99171633</v>
       </c>
       <c r="B60" t="n">
         <v>98520</v>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>539724.0239707431</v>
+        <v>539634.6737731346</v>
       </c>
       <c r="R60" t="n">
-        <v>6350124.83534026</v>
+        <v>6350013.729751441</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7506,10 +7506,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>99170857</v>
+        <v>99172460</v>
       </c>
       <c r="B61" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7522,21 +7522,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>539718.1835587301</v>
+        <v>539466.4186498214</v>
       </c>
       <c r="R61" t="n">
-        <v>6350112.890141781</v>
+        <v>6350111.541966762</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>99170707</v>
+        <v>99170736</v>
       </c>
       <c r="B62" t="n">
         <v>98520</v>
@@ -7662,10 +7662,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>539729.7571316255</v>
+        <v>539724.0239707431</v>
       </c>
       <c r="R62" t="n">
-        <v>6350091.926720717</v>
+        <v>6350124.83534026</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>99172212</v>
+        <v>99170857</v>
       </c>
       <c r="B63" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7750,21 +7750,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>539486.6579937832</v>
+        <v>539718.1835587301</v>
       </c>
       <c r="R63" t="n">
-        <v>6350033.919156426</v>
+        <v>6350112.890141781</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>99173843</v>
+        <v>99170707</v>
       </c>
       <c r="B64" t="n">
         <v>98520</v>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>539290.9125231432</v>
+        <v>539729.7571316255</v>
       </c>
       <c r="R64" t="n">
-        <v>6350345.462860767</v>
+        <v>6350091.926720717</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>99174707</v>
+        <v>99172212</v>
       </c>
       <c r="B65" t="n">
         <v>98520</v>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>539578.9318084632</v>
+        <v>539486.6579937832</v>
       </c>
       <c r="R65" t="n">
-        <v>6350179.093530533</v>
+        <v>6350033.919156426</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>99173956</v>
+        <v>99174707</v>
       </c>
       <c r="B66" t="n">
         <v>98520</v>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>539278.2608273412</v>
+        <v>539578.9318084632</v>
       </c>
       <c r="R66" t="n">
-        <v>6350309.677629653</v>
+        <v>6350179.093530533</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>

--- a/artfynd/A 66612-2020.xlsx
+++ b/artfynd/A 66612-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99173060</v>
+        <v>84051094</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,40 +692,46 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>539256.3188231563</v>
+        <v>539415.2116044338</v>
       </c>
       <c r="R2" t="n">
-        <v>6350226.250211943</v>
+        <v>6350031.070721704</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -752,7 +758,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -762,7 +768,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,6 +782,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -794,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99172927</v>
+        <v>84050355</v>
       </c>
       <c r="B3" t="n">
-        <v>94121</v>
+        <v>101680</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -806,40 +813,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>222412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>539254.0860618007</v>
+        <v>539505.7957487928</v>
       </c>
       <c r="R3" t="n">
-        <v>6350233.253767982</v>
+        <v>6350127.051859574</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +885,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -890,6 +899,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -908,7 +918,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99174072</v>
+        <v>84050708</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -942,18 +952,20 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>539208.2625974098</v>
+        <v>539402.8127194074</v>
       </c>
       <c r="R4" t="n">
-        <v>6350325.759571272</v>
+        <v>6350081.749373543</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -980,7 +992,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -990,7 +1002,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1004,6 +1016,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1035,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99174318</v>
+        <v>84051139</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>92939</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,36 +1051,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>2779</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>539216.6096727781</v>
+        <v>539410.7920437208</v>
       </c>
       <c r="R5" t="n">
-        <v>6350358.80148828</v>
+        <v>6350040.215144792</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1094,7 +1109,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1104,7 +1119,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1112,12 +1127,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Liten förekomst på en lodyta</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1136,10 +1157,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99173825</v>
+        <v>84051098</v>
       </c>
       <c r="B6" t="n">
-        <v>98520</v>
+        <v>89412</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,40 +1169,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>539271.5900078313</v>
+        <v>539415.2116044338</v>
       </c>
       <c r="R6" t="n">
-        <v>6350271.247502877</v>
+        <v>6350031.070721704</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1230,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1218,7 +1240,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1232,6 +1254,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1250,7 +1273,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99173789</v>
+        <v>84050375</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1284,18 +1307,20 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>539245.6396358059</v>
+        <v>539493.1042191584</v>
       </c>
       <c r="R7" t="n">
-        <v>6350267.216626702</v>
+        <v>6350151.787670188</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1322,7 +1347,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1332,7 +1357,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1346,6 +1371,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1364,10 +1390,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99173497</v>
+        <v>84051103</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,44 +1402,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>539248.1410926961</v>
+        <v>539415.2116044338</v>
       </c>
       <c r="R8" t="n">
-        <v>6350232.116149018</v>
+        <v>6350031.070721704</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1440,7 +1464,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1450,7 +1474,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1464,6 +1488,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1482,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99173832</v>
+        <v>84050667</v>
       </c>
       <c r="B9" t="n">
-        <v>98520</v>
+        <v>93375</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,36 +1523,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>2180</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>539275.9107554829</v>
+        <v>539316.1972421961</v>
       </c>
       <c r="R9" t="n">
-        <v>6350272.369600421</v>
+        <v>6350079.837855902</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1554,7 +1581,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1564,7 +1591,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1578,6 +1605,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1596,10 +1624,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99173328</v>
+        <v>84050320</v>
       </c>
       <c r="B10" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1612,35 +1640,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Hultsfred, Sm</t>
+          <t>Västrahult, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>539258.9327375042</v>
+        <v>539506.1758989005</v>
       </c>
       <c r="R10" t="n">
-        <v>6350236.002019925</v>
+        <v>6350143.807645764</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1667,7 +1698,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1677,7 +1708,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1691,6 +1722,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1709,10 +1741,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99173520</v>
+        <v>99172159</v>
       </c>
       <c r="B11" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,21 +1757,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1751,10 +1783,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>539242.1392826911</v>
+        <v>539516.5868594679</v>
       </c>
       <c r="R11" t="n">
-        <v>6350236.922146896</v>
+        <v>6350018.535473609</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1823,10 +1855,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99173205</v>
+        <v>99173060</v>
       </c>
       <c r="B12" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1839,21 +1871,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1865,10 +1897,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>539259.0464616225</v>
+        <v>539256.3188231563</v>
       </c>
       <c r="R12" t="n">
-        <v>6350224.114791503</v>
+        <v>6350226.250211943</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1937,10 +1969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99173739</v>
+        <v>99172927</v>
       </c>
       <c r="B13" t="n">
-        <v>56540</v>
+        <v>94121</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1953,41 +1985,36 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>53</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>539217.3739143952</v>
+        <v>539254.0860618007</v>
       </c>
       <c r="R13" t="n">
-        <v>6350278.834586831</v>
+        <v>6350233.253767982</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2030,11 +2057,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Sångläte</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2061,10 +2083,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99173575</v>
+        <v>99164222</v>
       </c>
       <c r="B14" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2073,25 +2095,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>539233.8634402123</v>
+        <v>539585.1582267071</v>
       </c>
       <c r="R14" t="n">
-        <v>6350253.054294443</v>
+        <v>6350151.053435681</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2149,11 +2171,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>10-tal plantor</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2180,7 +2197,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99173993</v>
+        <v>99174072</v>
       </c>
       <c r="B15" t="n">
         <v>98520</v>
@@ -2222,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>539223.855044062</v>
+        <v>539208.2625974098</v>
       </c>
       <c r="R15" t="n">
-        <v>6350280.517645895</v>
+        <v>6350325.759571272</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2294,10 +2311,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99173306</v>
+        <v>99166957</v>
       </c>
       <c r="B16" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2306,44 +2323,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>539256.3653434922</v>
+        <v>539621.0901715197</v>
       </c>
       <c r="R16" t="n">
-        <v>6350221.387247508</v>
+        <v>6350074.664182871</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2412,10 +2424,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99173768</v>
+        <v>99167041</v>
       </c>
       <c r="B17" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2424,28 +2436,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2454,10 +2470,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>539270.4865518878</v>
+        <v>539637.9157102385</v>
       </c>
       <c r="R17" t="n">
-        <v>6350273.398432867</v>
+        <v>6350070.50346332</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2526,7 +2542,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99173843</v>
+        <v>99167059</v>
       </c>
       <c r="B18" t="n">
         <v>98520</v>
@@ -2568,10 +2584,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>539290.9125231432</v>
+        <v>539649.649294429</v>
       </c>
       <c r="R18" t="n">
-        <v>6350345.462860767</v>
+        <v>6350088.990374581</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2640,7 +2656,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99173956</v>
+        <v>99174318</v>
       </c>
       <c r="B19" t="n">
         <v>98520</v>
@@ -2682,10 +2698,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>539278.2608273412</v>
+        <v>539216.6096727781</v>
       </c>
       <c r="R19" t="n">
-        <v>6350309.677629653</v>
+        <v>6350358.80148828</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2754,10 +2770,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>84051094</v>
+        <v>99171501</v>
       </c>
       <c r="B20" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2766,46 +2782,40 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>539415.2116044338</v>
+        <v>539743.5934798156</v>
       </c>
       <c r="R20" t="n">
-        <v>6350031.070721704</v>
+        <v>6350005.055765028</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2832,7 +2842,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2842,7 +2852,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2856,7 +2866,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2875,10 +2884,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>84050355</v>
+        <v>99173825</v>
       </c>
       <c r="B21" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2891,38 +2900,36 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>539505.7957487928</v>
+        <v>539271.5900078313</v>
       </c>
       <c r="R21" t="n">
-        <v>6350127.051859574</v>
+        <v>6350271.247502877</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2949,7 +2956,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2959,7 +2966,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2973,7 +2980,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2992,7 +2998,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>84050708</v>
+        <v>99173789</v>
       </c>
       <c r="B22" t="n">
         <v>98520</v>
@@ -3026,20 +3032,18 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>539402.8127194074</v>
+        <v>539245.6396358059</v>
       </c>
       <c r="R22" t="n">
-        <v>6350081.749373543</v>
+        <v>6350267.216626702</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3066,7 +3070,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3076,7 +3080,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3090,7 +3094,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3109,10 +3112,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>84051139</v>
+        <v>99170875</v>
       </c>
       <c r="B23" t="n">
-        <v>92939</v>
+        <v>56411</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3121,42 +3124,45 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2779</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>539410.7920437208</v>
+        <v>539714.4616858282</v>
       </c>
       <c r="R23" t="n">
-        <v>6350040.215144792</v>
+        <v>6350105.828983504</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3183,7 +3189,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3193,7 +3199,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3201,18 +3207,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Liten förekomst på en lodyta</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>84051098</v>
+        <v>99164309</v>
       </c>
       <c r="B24" t="n">
-        <v>89412</v>
+        <v>98520</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3243,41 +3243,40 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5442</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>539415.2116044338</v>
+        <v>539524.1721307951</v>
       </c>
       <c r="R24" t="n">
-        <v>6350031.070721704</v>
+        <v>6350074.270018245</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3304,7 +3303,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3314,7 +3313,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3328,7 +3327,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3347,7 +3345,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>84050375</v>
+        <v>99174613</v>
       </c>
       <c r="B25" t="n">
         <v>98520</v>
@@ -3381,20 +3379,18 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>539493.1042191584</v>
+        <v>539512.787834876</v>
       </c>
       <c r="R25" t="n">
-        <v>6350151.787670188</v>
+        <v>6350244.382634892</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3421,7 +3417,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3431,7 +3427,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3445,7 +3441,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3464,10 +3459,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>84051103</v>
+        <v>99170547</v>
       </c>
       <c r="B26" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3476,42 +3471,44 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>539415.2116044338</v>
+        <v>539712.4895218221</v>
       </c>
       <c r="R26" t="n">
-        <v>6350031.070721704</v>
+        <v>6350085.815209128</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3538,7 +3535,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3548,7 +3545,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3562,7 +3559,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3581,10 +3577,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>84050667</v>
+        <v>99169270</v>
       </c>
       <c r="B27" t="n">
-        <v>93375</v>
+        <v>98520</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3597,38 +3593,36 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2180</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>539316.1972421961</v>
+        <v>539788.1699979876</v>
       </c>
       <c r="R27" t="n">
-        <v>6350079.837855902</v>
+        <v>6350042.775755577</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3655,7 +3649,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3665,7 +3659,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3679,7 +3673,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3698,7 +3691,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>84050320</v>
+        <v>99170381</v>
       </c>
       <c r="B28" t="n">
         <v>98520</v>
@@ -3732,20 +3725,18 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Västrahult, Sm</t>
+          <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>539506.1758989005</v>
+        <v>539756.9240943585</v>
       </c>
       <c r="R28" t="n">
-        <v>6350143.807645764</v>
+        <v>6350138.123360272</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3772,7 +3763,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3782,7 +3773,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3796,7 +3787,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3815,7 +3805,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>99172159</v>
+        <v>99170649</v>
       </c>
       <c r="B29" t="n">
         <v>98520</v>
@@ -3857,10 +3847,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>539516.5868594679</v>
+        <v>539743.640175284</v>
       </c>
       <c r="R29" t="n">
-        <v>6350018.535473609</v>
+        <v>6350112.055810832</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3929,10 +3919,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99164222</v>
+        <v>99173497</v>
       </c>
       <c r="B30" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3941,28 +3931,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -3971,10 +3965,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>539585.1582267071</v>
+        <v>539248.1410926961</v>
       </c>
       <c r="R30" t="n">
-        <v>6350151.053435681</v>
+        <v>6350232.116149018</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4043,10 +4037,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>99166957</v>
+        <v>99173832</v>
       </c>
       <c r="B31" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4059,35 +4053,36 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>539621.0901715197</v>
+        <v>539275.9107554829</v>
       </c>
       <c r="R31" t="n">
-        <v>6350074.664182871</v>
+        <v>6350272.369600421</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4156,10 +4151,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>99167041</v>
+        <v>99169015</v>
       </c>
       <c r="B32" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4168,32 +4163,28 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4202,10 +4193,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>539637.9157102385</v>
+        <v>539780.1954048455</v>
       </c>
       <c r="R32" t="n">
-        <v>6350070.50346332</v>
+        <v>6350027.567102903</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4274,10 +4265,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>99167059</v>
+        <v>99172254</v>
       </c>
       <c r="B33" t="n">
-        <v>98520</v>
+        <v>56540</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4286,40 +4277,45 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>539649.649294429</v>
+        <v>539475.9500358979</v>
       </c>
       <c r="R33" t="n">
-        <v>6350088.990374581</v>
+        <v>6350077.5886661</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4362,6 +4358,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Sångläte</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4388,7 +4389,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>99171501</v>
+        <v>99164523</v>
       </c>
       <c r="B34" t="n">
         <v>98520</v>
@@ -4430,10 +4431,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539743.5934798156</v>
+        <v>539540.424873985</v>
       </c>
       <c r="R34" t="n">
-        <v>6350005.055765028</v>
+        <v>6350129.546939268</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4502,10 +4503,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>99170875</v>
+        <v>99166821</v>
       </c>
       <c r="B35" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4514,45 +4515,44 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539714.4616858282</v>
+        <v>539629.559704522</v>
       </c>
       <c r="R35" t="n">
-        <v>6350105.828983504</v>
+        <v>6350094.740695421</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>99164309</v>
+        <v>99174643</v>
       </c>
       <c r="B36" t="n">
         <v>98520</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539524.1721307951</v>
+        <v>539544.7402586313</v>
       </c>
       <c r="R36" t="n">
-        <v>6350074.270018245</v>
+        <v>6350243.609669021</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>99174613</v>
+        <v>99173328</v>
       </c>
       <c r="B37" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4751,36 +4751,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539512.787834876</v>
+        <v>539258.9327375042</v>
       </c>
       <c r="R37" t="n">
-        <v>6350244.382634892</v>
+        <v>6350236.002019925</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4849,10 +4848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>99170547</v>
+        <v>99173520</v>
       </c>
       <c r="B38" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4861,32 +4860,28 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
@@ -4895,10 +4890,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539712.4895218221</v>
+        <v>539242.1392826911</v>
       </c>
       <c r="R38" t="n">
-        <v>6350085.815209128</v>
+        <v>6350236.922146896</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4967,7 +4962,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>99169270</v>
+        <v>99170698</v>
       </c>
       <c r="B39" t="n">
         <v>98520</v>
@@ -5009,10 +5004,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539788.1699979876</v>
+        <v>539752.4701903656</v>
       </c>
       <c r="R39" t="n">
-        <v>6350042.775755577</v>
+        <v>6350094.848659789</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5081,7 +5076,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>99170381</v>
+        <v>99167171</v>
       </c>
       <c r="B40" t="n">
         <v>98520</v>
@@ -5123,10 +5118,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539756.9240943585</v>
+        <v>539658.8062776213</v>
       </c>
       <c r="R40" t="n">
-        <v>6350138.123360272</v>
+        <v>6350093.942432959</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5195,7 +5190,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>99170649</v>
+        <v>99168366</v>
       </c>
       <c r="B41" t="n">
         <v>98520</v>
@@ -5237,10 +5232,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539743.640175284</v>
+        <v>539754.1601947012</v>
       </c>
       <c r="R41" t="n">
-        <v>6350112.055810832</v>
+        <v>6350032.178471924</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5309,10 +5304,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>99169015</v>
+        <v>99173205</v>
       </c>
       <c r="B42" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5325,21 +5320,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5351,10 +5346,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539780.1954048455</v>
+        <v>539259.0464616225</v>
       </c>
       <c r="R42" t="n">
-        <v>6350027.567102903</v>
+        <v>6350224.114791503</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5423,7 +5418,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>99172254</v>
+        <v>99173739</v>
       </c>
       <c r="B43" t="n">
         <v>56540</v>
@@ -5470,10 +5465,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539475.9500358979</v>
+        <v>539217.3739143952</v>
       </c>
       <c r="R43" t="n">
-        <v>6350077.5886661</v>
+        <v>6350278.834586831</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5547,7 +5542,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>99164523</v>
+        <v>99164510</v>
       </c>
       <c r="B44" t="n">
         <v>98520</v>
@@ -5589,10 +5584,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539540.424873985</v>
+        <v>539527.3530811256</v>
       </c>
       <c r="R44" t="n">
-        <v>6350129.546939268</v>
+        <v>6350137.52688375</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5661,7 +5656,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>99166821</v>
+        <v>99170936</v>
       </c>
       <c r="B45" t="n">
         <v>96334</v>
@@ -5696,7 +5691,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -5707,10 +5702,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539629.559704522</v>
+        <v>539726.3935934707</v>
       </c>
       <c r="R45" t="n">
-        <v>6350094.740695421</v>
+        <v>6350103.782888344</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5779,7 +5774,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>99174643</v>
+        <v>99167899</v>
       </c>
       <c r="B46" t="n">
         <v>98520</v>
@@ -5821,10 +5816,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539544.7402586313</v>
+        <v>539725.0988923627</v>
       </c>
       <c r="R46" t="n">
-        <v>6350243.609669021</v>
+        <v>6350069.725266583</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5893,10 +5888,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>99170698</v>
+        <v>99170979</v>
       </c>
       <c r="B47" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5909,21 +5904,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5935,10 +5930,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539752.4701903656</v>
+        <v>539703.9367285477</v>
       </c>
       <c r="R47" t="n">
-        <v>6350094.848659789</v>
+        <v>6350074.384073156</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6007,10 +6002,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>99167171</v>
+        <v>99172394</v>
       </c>
       <c r="B48" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6023,21 +6018,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6049,10 +6044,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539658.8062776213</v>
+        <v>539465.3514239549</v>
       </c>
       <c r="R48" t="n">
-        <v>6350093.942432959</v>
+        <v>6350109.91052043</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6121,10 +6116,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>99168366</v>
+        <v>99173575</v>
       </c>
       <c r="B49" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6133,25 +6128,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6163,10 +6158,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539754.1601947012</v>
+        <v>539233.8634402123</v>
       </c>
       <c r="R49" t="n">
-        <v>6350032.178471924</v>
+        <v>6350253.054294443</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6209,6 +6204,11 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>10-tal plantor</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6235,7 +6235,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>99164510</v>
+        <v>99173993</v>
       </c>
       <c r="B50" t="n">
         <v>98520</v>
@@ -6277,10 +6277,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539527.3530811256</v>
+        <v>539223.855044062</v>
       </c>
       <c r="R50" t="n">
-        <v>6350137.52688375</v>
+        <v>6350280.517645895</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>99170936</v>
+        <v>99173306</v>
       </c>
       <c r="B51" t="n">
         <v>96334</v>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>539726.3935934707</v>
+        <v>539256.3653434922</v>
       </c>
       <c r="R51" t="n">
-        <v>6350103.782888344</v>
+        <v>6350221.387247508</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>99167899</v>
+        <v>99167046</v>
       </c>
       <c r="B52" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6483,36 +6483,35 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>539725.0988923627</v>
+        <v>539637.9157102385</v>
       </c>
       <c r="R52" t="n">
-        <v>6350069.725266583</v>
+        <v>6350070.50346332</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6581,10 +6580,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>99170979</v>
+        <v>99164191</v>
       </c>
       <c r="B53" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6597,21 +6596,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6623,10 +6622,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>539703.9367285477</v>
+        <v>539581.8733302461</v>
       </c>
       <c r="R53" t="n">
-        <v>6350074.384073156</v>
+        <v>6350154.804474275</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6695,10 +6694,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>99172394</v>
+        <v>99168206</v>
       </c>
       <c r="B54" t="n">
-        <v>103265</v>
+        <v>56540</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6707,40 +6706,45 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>539465.3514239549</v>
+        <v>539725.119814633</v>
       </c>
       <c r="R54" t="n">
-        <v>6350109.91052043</v>
+        <v>6350067.563866677</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6783,6 +6787,11 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Sångläte</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6809,10 +6818,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>99167046</v>
+        <v>99165688</v>
       </c>
       <c r="B55" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6825,35 +6834,36 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>539637.9157102385</v>
+        <v>539600.5573453812</v>
       </c>
       <c r="R55" t="n">
-        <v>6350070.50346332</v>
+        <v>6350126.344019163</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6922,10 +6932,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>99164191</v>
+        <v>99170645</v>
       </c>
       <c r="B56" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6934,28 +6944,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
@@ -6964,10 +6978,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>539581.8733302461</v>
+        <v>539743.640175284</v>
       </c>
       <c r="R56" t="n">
-        <v>6350154.804474275</v>
+        <v>6350112.055810832</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7036,10 +7050,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>99168206</v>
+        <v>99171633</v>
       </c>
       <c r="B57" t="n">
-        <v>56540</v>
+        <v>98520</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7048,45 +7062,40 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Hultsfred, Sm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>539725.119814633</v>
+        <v>539634.6737731346</v>
       </c>
       <c r="R57" t="n">
-        <v>6350067.563866677</v>
+        <v>6350013.729751441</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7129,11 +7138,6 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Sångläte</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7160,7 +7164,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>99165688</v>
+        <v>99172460</v>
       </c>
       <c r="B58" t="n">
         <v>98520</v>
@@ -7202,10 +7206,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>539600.5573453812</v>
+        <v>539466.4186498214</v>
       </c>
       <c r="R58" t="n">
-        <v>6350126.344019163</v>
+        <v>6350111.541966762</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7274,10 +7278,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>99170645</v>
+        <v>99173768</v>
       </c>
       <c r="B59" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7286,32 +7290,28 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>539743.640175284</v>
+        <v>539270.4865518878</v>
       </c>
       <c r="R59" t="n">
-        <v>6350112.055810832</v>
+        <v>6350273.398432867</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>99171633</v>
+        <v>99170736</v>
       </c>
       <c r="B60" t="n">
         <v>98520</v>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>539634.6737731346</v>
+        <v>539724.0239707431</v>
       </c>
       <c r="R60" t="n">
-        <v>6350013.729751441</v>
+        <v>6350124.83534026</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7506,10 +7506,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>99172460</v>
+        <v>99170857</v>
       </c>
       <c r="B61" t="n">
-        <v>98520</v>
+        <v>103265</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7522,21 +7522,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>539466.4186498214</v>
+        <v>539718.1835587301</v>
       </c>
       <c r="R61" t="n">
-        <v>6350111.541966762</v>
+        <v>6350112.890141781</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>99170736</v>
+        <v>99170707</v>
       </c>
       <c r="B62" t="n">
         <v>98520</v>
@@ -7662,10 +7662,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>539724.0239707431</v>
+        <v>539729.7571316255</v>
       </c>
       <c r="R62" t="n">
-        <v>6350124.83534026</v>
+        <v>6350091.926720717</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>99170857</v>
+        <v>99172212</v>
       </c>
       <c r="B63" t="n">
-        <v>103265</v>
+        <v>98520</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7750,21 +7750,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>539718.1835587301</v>
+        <v>539486.6579937832</v>
       </c>
       <c r="R63" t="n">
-        <v>6350112.890141781</v>
+        <v>6350033.919156426</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>99170707</v>
+        <v>99173843</v>
       </c>
       <c r="B64" t="n">
         <v>98520</v>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>539729.7571316255</v>
+        <v>539290.9125231432</v>
       </c>
       <c r="R64" t="n">
-        <v>6350091.926720717</v>
+        <v>6350345.462860767</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>99172212</v>
+        <v>99174707</v>
       </c>
       <c r="B65" t="n">
         <v>98520</v>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>539486.6579937832</v>
+        <v>539578.9318084632</v>
       </c>
       <c r="R65" t="n">
-        <v>6350033.919156426</v>
+        <v>6350179.093530533</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>99174707</v>
+        <v>99173956</v>
       </c>
       <c r="B66" t="n">
         <v>98520</v>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>539578.9318084632</v>
+        <v>539278.2608273412</v>
       </c>
       <c r="R66" t="n">
-        <v>6350179.093530533</v>
+        <v>6350309.677629653</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
